--- a/testcases/employees_all.xlsx
+++ b/testcases/employees_all.xlsx
@@ -5,18 +5,20 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/veii/Downloads/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/veii/Desktop/Code/postgre-grader/db/testcases/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B30A4CFE-47E8-7849-9718-EBA2BB55276C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5FF73C4D-A015-A247-9C7C-07C33348B7DF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="380" yWindow="500" windowWidth="28040" windowHeight="16240" activeTab="3" xr2:uid="{DB3BA10B-6DA9-494C-9D41-084B91480E59}"/>
+    <workbookView xWindow="380" yWindow="500" windowWidth="28040" windowHeight="16240" activeTab="4" xr2:uid="{DB3BA10B-6DA9-494C-9D41-084B91480E59}"/>
   </bookViews>
   <sheets>
     <sheet name="employees" sheetId="1" r:id="rId1"/>
     <sheet name="employees_ans" sheetId="2" r:id="rId2"/>
     <sheet name="employees_2" sheetId="3" r:id="rId3"/>
     <sheet name="employees_2_ans" sheetId="4" r:id="rId4"/>
+    <sheet name="employees_3" sheetId="6" r:id="rId5"/>
+    <sheet name="employees_3_ans" sheetId="5" r:id="rId6"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -36,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="31">
   <si>
     <t>FirstName</t>
   </si>
@@ -111,6 +113,24 @@
   </si>
   <si>
     <t>Topher</t>
+  </si>
+  <si>
+    <t>Firstname</t>
+  </si>
+  <si>
+    <t>Lastname</t>
+  </si>
+  <si>
+    <t>Q</t>
+  </si>
+  <si>
+    <t>Z</t>
+  </si>
+  <si>
+    <t>AA</t>
+  </si>
+  <si>
+    <t>BB</t>
   </si>
 </sst>
 </file>
@@ -839,7 +859,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{85915904-14CD-424A-86FF-75141115898A}">
   <dimension ref="A1:D5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="N27" sqref="N27"/>
     </sheetView>
   </sheetViews>
@@ -902,4 +922,104 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{43843694-81C8-A740-ADB6-43E631A932E1}">
+  <dimension ref="A1:D3"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D2" sqref="D2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>29</v>
+      </c>
+      <c r="B2" t="s">
+        <v>30</v>
+      </c>
+      <c r="C2">
+        <v>2499</v>
+      </c>
+      <c r="D2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>27</v>
+      </c>
+      <c r="B3" t="s">
+        <v>28</v>
+      </c>
+      <c r="C3">
+        <v>2499</v>
+      </c>
+      <c r="D3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{27AD68FC-D221-744C-963D-37463CA4F676}">
+  <dimension ref="A1:D2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:D2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>27</v>
+      </c>
+      <c r="B2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C2">
+        <v>2499</v>
+      </c>
+      <c r="D2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/testcases/employees_all.xlsx
+++ b/testcases/employees_all.xlsx
@@ -4,7 +4,7 @@
   <fileVersion rupBuild="9303" lowestEdited="5" lastEdited="5" appName="xl"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="60" windowWidth="18195" windowHeight="8505" activeTab="3"/>
+    <workbookView xWindow="480" yWindow="60" windowWidth="18195" windowHeight="8505" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet r:id="rId1" sheetId="1" name="employees"/>
@@ -129,7 +129,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
     </font>
@@ -172,9 +172,6 @@
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment horizontal="general"/>
     </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
     <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -193,8 +190,11 @@
     <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="general"/>
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -504,10 +504,10 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" style="4" width="12.43357142857143" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="4" width="12.43357142857143" customWidth="1" bestFit="1"/>
-    <col min="3" max="3" style="5" width="12.43357142857143" customWidth="1" bestFit="1"/>
-    <col min="4" max="4" style="4" width="12.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="1" max="1" style="3" width="12.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="2" max="2" style="3" width="12.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="3" max="3" style="4" width="12.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="4" max="4" style="3" width="12.43357142857143" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
     <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="17.25">
@@ -531,7 +531,7 @@
       <c r="B2" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C2" s="3">
+      <c r="C2" s="2">
         <v>2000</v>
       </c>
       <c r="D2" s="1" t="s">
@@ -545,7 +545,7 @@
       <c r="B3" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="C3" s="3">
+      <c r="C3" s="2">
         <v>1000</v>
       </c>
       <c r="D3" s="1" t="s">
@@ -559,7 +559,7 @@
       <c r="B4" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="C4" s="3">
+      <c r="C4" s="2">
         <v>1309432</v>
       </c>
       <c r="D4" s="1" t="s">
@@ -573,7 +573,7 @@
       <c r="B5" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="C5" s="3">
+      <c r="C5" s="2">
         <v>5000</v>
       </c>
       <c r="D5" s="1" t="s">
@@ -587,7 +587,7 @@
       <c r="B6" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="C6" s="3">
+      <c r="C6" s="2">
         <v>4000</v>
       </c>
       <c r="D6" s="1" t="s">
@@ -601,7 +601,7 @@
       <c r="B7" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="C7" s="3">
+      <c r="C7" s="2">
         <v>3000</v>
       </c>
       <c r="D7" s="1" t="s">
@@ -615,7 +615,7 @@
       <c r="B8" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="C8" s="3">
+      <c r="C8" s="2">
         <v>2499</v>
       </c>
       <c r="D8" s="1" t="s">
@@ -629,7 +629,7 @@
       <c r="B9" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="C9" s="3">
+      <c r="C9" s="2">
         <v>900</v>
       </c>
       <c r="D9" s="1" t="s">
@@ -643,7 +643,7 @@
       <c r="B10" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="C10" s="3">
+      <c r="C10" s="2">
         <v>4000</v>
       </c>
       <c r="D10" s="1" t="s">
@@ -666,10 +666,10 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" style="4" width="12.43357142857143" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="4" width="12.43357142857143" customWidth="1" bestFit="1"/>
-    <col min="3" max="3" style="5" width="12.43357142857143" customWidth="1" bestFit="1"/>
-    <col min="4" max="4" style="4" width="12.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="1" max="1" style="3" width="12.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="2" max="2" style="3" width="12.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="3" max="3" style="4" width="12.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="4" max="4" style="3" width="12.43357142857143" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
     <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="17.25">
@@ -693,7 +693,7 @@
       <c r="B2" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C2" s="3">
+      <c r="C2" s="2">
         <v>2000</v>
       </c>
       <c r="D2" s="1" t="s">
@@ -707,7 +707,7 @@
       <c r="B3" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="C3" s="3">
+      <c r="C3" s="2">
         <v>2499</v>
       </c>
       <c r="D3" s="1" t="s">
@@ -726,153 +726,153 @@
   </sheetPr>
   <dimension ref="A1:D10"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0" tabSelected="1"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" style="4" width="12.43357142857143" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="4" width="12.43357142857143" customWidth="1" bestFit="1"/>
-    <col min="3" max="3" style="5" width="12.43357142857143" customWidth="1" bestFit="1"/>
-    <col min="4" max="4" style="4" width="12.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="1" max="1" style="8" width="12.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="2" max="2" style="8" width="12.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="3" max="3" style="4" width="12.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="4" max="4" style="8" width="12.43357142857143" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
     <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="17.25">
-      <c r="A1" s="6" t="s">
+      <c r="A1" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="B1" s="6" t="s">
+      <c r="B1" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="C1" s="7" t="s">
+      <c r="C1" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="6" t="s">
+      <c r="D1" s="5" t="s">
         <v>3</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="17.25">
-      <c r="A2" s="6" t="s">
+      <c r="A2" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="B2" s="6" t="s">
+      <c r="B2" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="C2" s="8">
+      <c r="C2" s="7">
         <v>2499</v>
       </c>
-      <c r="D2" s="6" t="s">
+      <c r="D2" s="5" t="s">
         <v>6</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="17.25">
-      <c r="A3" s="6" t="s">
+      <c r="A3" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="B3" s="6" t="s">
+      <c r="B3" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="C3" s="8">
+      <c r="C3" s="7">
         <v>2499</v>
       </c>
-      <c r="D3" s="6" t="s">
+      <c r="D3" s="5" t="s">
         <v>9</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="17.25">
-      <c r="A4" s="6" t="s">
+      <c r="A4" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="B4" s="6" t="s">
+      <c r="B4" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="C4" s="8">
+      <c r="C4" s="7">
         <v>2501</v>
       </c>
-      <c r="D4" s="6" t="s">
+      <c r="D4" s="5" t="s">
         <v>20</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="17.25">
-      <c r="A5" s="6" t="s">
+      <c r="A5" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="B5" s="6" t="s">
+      <c r="B5" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="C5" s="8">
+      <c r="C5" s="7">
         <v>2501</v>
       </c>
-      <c r="D5" s="6" t="s">
+      <c r="D5" s="5" t="s">
         <v>6</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="17.25">
-      <c r="A6" s="6" t="s">
+      <c r="A6" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="B6" s="6" t="s">
+      <c r="B6" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="C6" s="8">
+      <c r="C6" s="7">
         <v>2500</v>
       </c>
-      <c r="D6" s="6" t="s">
+      <c r="D6" s="5" t="s">
         <v>6</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="17.25">
-      <c r="A7" s="6" t="s">
+      <c r="A7" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="B7" s="6" t="s">
+      <c r="B7" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="C7" s="8">
+      <c r="C7" s="7">
         <v>2501</v>
       </c>
-      <c r="D7" s="6" t="s">
+      <c r="D7" s="5" t="s">
         <v>9</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="17.25">
-      <c r="A8" s="6" t="s">
+      <c r="A8" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="B8" s="6" t="s">
+      <c r="B8" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="C8" s="8">
+      <c r="C8" s="7">
         <v>1</v>
       </c>
-      <c r="D8" s="6" t="s">
+      <c r="D8" s="5" t="s">
         <v>6</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="17.25">
-      <c r="A9" s="6" t="s">
+      <c r="A9" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="B9" s="6" t="s">
+      <c r="B9" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="C9" s="8">
+      <c r="C9" s="7">
         <v>2499</v>
       </c>
-      <c r="D9" s="6" t="s">
+      <c r="D9" s="5" t="s">
         <v>20</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="17.25">
-      <c r="A10" s="6" t="s">
+      <c r="A10" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="B10" s="6" t="s">
+      <c r="B10" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="C10" s="8">
+      <c r="C10" s="7">
         <v>2500</v>
       </c>
-      <c r="D10" s="6" t="s">
+      <c r="D10" s="5" t="s">
         <v>9</v>
       </c>
     </row>
@@ -886,71 +886,59 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:D3"/>
   <sheetViews>
-    <sheetView workbookViewId="0" tabSelected="1"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" style="4" width="12.43357142857143" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="4" width="12.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="1" max="1" style="8" width="12.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="2" max="2" style="8" width="12.43357142857143" customWidth="1" bestFit="1"/>
     <col min="3" max="3" style="9" width="12.43357142857143" customWidth="1" bestFit="1"/>
-    <col min="4" max="4" style="4" width="12.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="4" max="4" style="8" width="12.43357142857143" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
     <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="20.25">
-      <c r="A1" s="6" t="s">
+      <c r="A1" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="B1" s="6" t="s">
+      <c r="B1" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="C1" s="7" t="s">
+      <c r="C1" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="6" t="s">
+      <c r="D1" s="5" t="s">
         <v>3</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="20.25">
-      <c r="A2" s="6" t="s">
+      <c r="A2" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="B2" s="6" t="s">
+      <c r="B2" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="C2" s="8">
+      <c r="C2" s="7">
         <v>2499</v>
       </c>
-      <c r="D2" s="6" t="s">
+      <c r="D2" s="5" t="s">
         <v>6</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="20.25">
-      <c r="A3" s="6" t="s">
+      <c r="A3" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="B3" s="6" t="s">
+      <c r="B3" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="C3" s="8">
+      <c r="C3" s="7">
         <v>1</v>
       </c>
-      <c r="D3" s="6" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="20.25">
-      <c r="A4" s="6"/>
-      <c r="B4" s="6"/>
-      <c r="C4" s="7"/>
-      <c r="D4" s="6"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="20.25">
-      <c r="A5" s="6"/>
-      <c r="B5" s="6"/>
-      <c r="C5" s="7"/>
-      <c r="D5" s="6"/>
+      <c r="D3" s="5" t="s">
+        <v>6</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -968,10 +956,10 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" style="4" width="12.43357142857143" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="4" width="12.43357142857143" customWidth="1" bestFit="1"/>
-    <col min="3" max="3" style="5" width="12.43357142857143" customWidth="1" bestFit="1"/>
-    <col min="4" max="4" style="4" width="12.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="1" max="1" style="3" width="12.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="2" max="2" style="3" width="12.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="3" max="3" style="4" width="12.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="4" max="4" style="3" width="12.43357142857143" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
     <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="17.25">
@@ -995,7 +983,7 @@
       <c r="B2" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C2" s="3">
+      <c r="C2" s="2">
         <v>2499</v>
       </c>
       <c r="D2" s="1" t="s">
@@ -1009,7 +997,7 @@
       <c r="B3" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C3" s="3">
+      <c r="C3" s="2">
         <v>2499</v>
       </c>
       <c r="D3" s="1" t="s">
@@ -1032,10 +1020,10 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" style="4" width="12.43357142857143" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="4" width="12.43357142857143" customWidth="1" bestFit="1"/>
-    <col min="3" max="3" style="5" width="12.43357142857143" customWidth="1" bestFit="1"/>
-    <col min="4" max="4" style="4" width="12.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="1" max="1" style="3" width="12.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="2" max="2" style="3" width="12.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="3" max="3" style="4" width="12.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="4" max="4" style="3" width="12.43357142857143" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
     <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="17.25">
@@ -1059,7 +1047,7 @@
       <c r="B2" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="3">
+      <c r="C2" s="2">
         <v>2499</v>
       </c>
       <c r="D2" s="1" t="s">
